--- a/backend/uwquestions/uw_questions_template.xlsx
+++ b/backend/uwquestions/uw_questions_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exavalu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwes\OneDrive\Desktop\PrefillUnderwriter\New_UnderWriterPortal\backend\uwquestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674793F3-8976-4D8A-A6E3-3C7A2A452087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B4619-09F6-4308-8747-C09189AB33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -31,27 +31,9 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Is the applicant a subsidiary of another entity?</t>
-  </si>
-  <si>
-    <t>Does the applicant have any subsidiaries?</t>
-  </si>
-  <si>
-    <t>Is a formal safety program in operation?</t>
-  </si>
-  <si>
-    <t>Any exposure to flammables, explosives, and chemicals?</t>
-  </si>
-  <si>
-    <t>Any other insurance with this company?</t>
-  </si>
-  <si>
     <t>Any policy or coverage declined, canceled, or non-renewed during the prior 3 years?</t>
   </si>
   <si>
-    <t>Are there existing fire code violations that need to be addressed?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -82,16 +64,13 @@
     <t>There are existing fire code violations that need to be addressed.</t>
   </si>
   <si>
-    <t>Does an Owner,Manager,or Superintendent live full-time on the premises?</t>
-  </si>
-  <si>
-    <t>Act now, or in the past, as a developer, contractor, construction manager, or similar profession related to construction?</t>
-  </si>
-  <si>
-    <t>Own other commercial, industrial, or residential properties that are not included in this submission?</t>
-  </si>
-  <si>
-    <t>Carried property or liability insurance with a non-admitted insurance carrier for any locations in this submission?</t>
+    <t>Is the Age of building more that 50 years ?</t>
+  </si>
+  <si>
+    <t>Does the building have more than 20 residential units ?</t>
+  </si>
+  <si>
+    <t>Did the property have more than $1M loss in the past ?</t>
   </si>
 </sst>
 </file>
@@ -459,18 +438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="111.7109375" customWidth="1"/>
+    <col min="1" max="1" width="111.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,101 +460,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
